--- a/tests/Files/ExampleOdkWithNestedRepeat.xlsx
+++ b/tests/Files/ExampleOdkWithNestedRepeat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Projects/Packages/laravel-odk-link/tests/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BD1AFD-2471-7C48-9E51-3CFAC0DDA9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCC12FB-7D04-3B44-9F36-4BD1B8B22D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8500" yWindow="-25300" windowWidth="32600" windowHeight="17560" tabRatio="321" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,24 +745,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,12 +791,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
@@ -1347,7 +1346,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1601,7 @@
       <c r="A13" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -1618,7 +1617,7 @@
       <c r="A14" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="25"/>
@@ -1630,7 +1629,7 @@
       <c r="A15" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C15" s="25"/>
@@ -1645,7 +1644,7 @@
       <c r="A16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -1659,7 +1658,7 @@
       <c r="A17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -1676,7 +1675,7 @@
       <c r="A18" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>130</v>
       </c>
       <c r="C18" s="25"/>
@@ -1691,7 +1690,7 @@
       <c r="A19" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>136</v>
       </c>
       <c r="C19" s="25"/>
@@ -1706,7 +1705,7 @@
       <c r="A20" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>134</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -1720,7 +1719,7 @@
       <c r="A21" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>130</v>
       </c>
       <c r="C21" s="25"/>
@@ -1732,7 +1731,7 @@
       <c r="A22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="25"/>
@@ -1742,7 +1741,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="23"/>
